--- a/as_3_programming/Assembly/AssemblyAndStack.xlsx
+++ b/as_3_programming/Assembly/AssemblyAndStack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EducationRappi\Github\CyberSecRappi\as_4_reverseEngineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EducationRappi\Github\CyberSecRappi\as_3_programming\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A515D13-ED01-40D7-A957-1D515A9B719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB1E0B5-634D-44C9-9086-47EED27AB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54765" yWindow="1725" windowWidth="23685" windowHeight="13710" xr2:uid="{AE01B442-E47A-4298-AC0D-2AB51B09020A}"/>
+    <workbookView xWindow="-52230" yWindow="1335" windowWidth="19425" windowHeight="12495" xr2:uid="{AE01B442-E47A-4298-AC0D-2AB51B09020A}"/>
   </bookViews>
   <sheets>
     <sheet name="Calling convention and Stack" sheetId="3" r:id="rId1"/>
@@ -256,15 +256,9 @@
     <t>push rdi</t>
   </si>
   <si>
-    <t>pushes the value of rdi onto the stack and decreases the stack pointer by the size of the written data</t>
-  </si>
-  <si>
     <t>pop rdi</t>
   </si>
   <si>
-    <t>restores the data (size of the register) from the stack and increases the stackpointer by size of data</t>
-  </si>
-  <si>
     <t>Stack push and pop</t>
   </si>
   <si>
@@ -329,6 +323,58 @@
   </si>
   <si>
     <t xml:space="preserve">(in ghidra the subregisters like eax etc. used/visible) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pushes the value of rdi onto the stack and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decreases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the stack pointer by the size of the written data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>restores the data (size of the register) from the stack and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> increases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the stackpointer by size of data</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -962,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F3E76F-AA08-42B2-80BC-EE75464DC49F}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +1022,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -989,20 +1035,20 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="G3" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -1030,7 +1076,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -1047,11 +1093,11 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" s="39"/>
       <c r="G7" s="20">
@@ -1066,11 +1112,11 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="39"/>
       <c r="G8" s="20">
@@ -1100,7 +1146,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -1132,7 +1178,7 @@
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="39"/>
@@ -1145,11 +1191,11 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="39"/>
       <c r="G13" s="29" t="s">
@@ -1160,11 +1206,11 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="39"/>
       <c r="G14" s="29"/>
@@ -1179,7 +1225,7 @@
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="39"/>
       <c r="G15" s="32" t="s">
@@ -1192,11 +1238,11 @@
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="39"/>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1211,7 +1257,7 @@
     </row>
     <row r="21" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="35"/>
@@ -1223,7 +1269,7 @@
     </row>
     <row r="22" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -1235,7 +1281,7 @@
     </row>
     <row r="23" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -1250,7 +1296,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -1261,10 +1307,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -1275,7 +1321,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
